--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_end.xlsx
@@ -2484,7 +2484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Recording"]  “Chief Wei, you must act immediately upon receiving this message.”
+    <t xml:space="preserve">[name="Recording"]  'Chief Wei, you must act immediately upon receiving this message.'
 </t>
   </si>
   <si>
@@ -2492,27 +2492,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Recording"]  “The following has been Arts encrypted.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “Mr. Wei, Groups Three and Four are standing down. We are unable to get to the source of the matter.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “I can’t even speculate on who the mastermind might be.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “They were whispering from the parliamentary gallery, laughing at my miserable, helpless performance. But I found no evidence to hold them accountable.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “If something happens in Chernobog, you must do everything you can to stop it. Otherwise, who knows what will happen?”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “You have the wisdom and ability to stop it at its source. What we could not do, you must do in our stead.”
+    <t xml:space="preserve">[name="Recording"]  'The following has been Arts encrypted.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'Mr. Wei, Groups Three and Four are standing down. We are unable to get to the source of the matter.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I can’t even speculate on who the mastermind might be.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'They were whispering from the parliamentary gallery, laughing at my miserable, helpless performance. But I found no evidence to hold them accountable.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'If something happens in Chernobog, you must do everything you can to stop it. Otherwise, who knows what will happen?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'You have the wisdom and ability to stop it at its source. What we could not do, you must do in our stead.'
 </t>
   </si>
   <si>
@@ -2532,15 +2532,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “I was unable to meet Chairman Witte, and the Messenger he sent to liaise with me was waylaid by unknown forces. Fortunately, that Messenger is still safe and sound.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “The Messenger slipped out of Deity Grypherburg in the dead of night, and someone secretly aided him. I believe there are forces within Ursus vying for supremacy.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “I was attacked many times on the road after that. And there were many others who tried to protect me.”
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I was unable to meet Chairman Witte, and the Messenger he sent to liaise with me was waylaid by unknown forces. Fortunately, that Messenger is still safe and sound.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'The Messenger slipped out of Deity Grypherburg in the dead of night, and someone secretly aided him. I believe there are forces within Ursus vying for supremacy.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I was attacked many times on the road after that. And there were many others who tried to protect me.'
 </t>
   </si>
   <si>
@@ -2548,11 +2548,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “I reached the Ural Rift and commandeered a messaging station. What happens now, even I don’t know.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  “I hope to make it back to Lungmen, to enjoy the flavors of home once again.”
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I reached the Ural Rift and commandeered a messaging station. What happens now, even I don’t know.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I hope to make it back to Lungmen, to enjoy the flavors of home once again.'
 </t>
   </si>
   <si>
@@ -2808,7 +2808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  “What did they do?”
+    <t xml:space="preserve">[name="Wei Yenwu"]  'What did they do?'
 </t>
   </si>
   <si>
@@ -2952,7 +2952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  When you say “act,” do you mean——
+    <t xml:space="preserve">[name="Ch’en"]  When you say 'act,' do you mean——
 </t>
   </si>
   <si>
@@ -3060,7 +3060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“Don’t feel bad. I understand. We’re sworn brothers, aren’t we? Brothers... remember where we came from.”
+    <t xml:space="preserve">'Don’t feel bad. I understand. We’re sworn brothers, aren’t we? Brothers... remember where we came from.'
 </t>
   </si>
   <si>
@@ -3072,7 +3072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“I hate you. And I hate them. I should love you, but right now I hate every last one of you.”
+    <t xml:space="preserve">'I hate you. And I hate them. I should love you, but right now I hate every last one of you.'
 </t>
   </si>
   <si>
@@ -3084,7 +3084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“Why me? Why does it have to be me? Who could feel safe sitting here?”
+    <t xml:space="preserve">'Why me? Why does it have to be me? Who could feel safe sitting here?'
 </t>
   </si>
   <si>
@@ -3112,7 +3112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  The only difference is, I’m not like you. I don’t think anyone is a “mistake.”
+    <t xml:space="preserve">[name="Ch’en"]  The only difference is, I’m not like you. I don’t think anyone is a 'mistake.'
 </t>
   </si>
   <si>
@@ -3204,7 +3204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]   Get out! 
+    <t xml:space="preserve">[name="Wei Yenwu"]   Get out! 
 </t>
   </si>
   <si>
@@ -3292,11 +3292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“Brother, if this sword is used to slay dragons, does it also work on Dracos?”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"It just might. Looks like I’ll have to be more careful around you, haha...”
+    <t xml:space="preserve">'Brother, if this sword is used to slay dragons, does it also work on Dracos?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'It just might. Looks like I’ll have to be more careful around you, haha...'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-01_end.xlsx
@@ -2348,7 +2348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Wei Yenwu’s Office - 6:30 PM
+    <t xml:space="preserve">Wei Yenwu's Office - 6:30 P.M.
 </t>
   </si>
   <si>
@@ -2360,7 +2360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  So attacking it would be an act of war...?
+    <t xml:space="preserve">[name="Ch'en"]  So attacking it would be an act of war...?
 </t>
   </si>
   <si>
@@ -2376,7 +2376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  If it was profitable, the Empire would start a world war without a second thought. And they would’ve done it decades ago.
+    <t xml:space="preserve">[name="Wei Yenwu"]  If it was profitable, the Empire would start a world war without a second thought. And they would've done it decades ago.
 </t>
   </si>
   <si>
@@ -2384,7 +2384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  The fact that Yen has not waged war for centuries does not mean they lack the capacity to fight. But I’d say a militaristic state might struggle to understand what it is that’s led to Yen’s prosperity.
+    <t xml:space="preserve">[name="Wei Yenwu"]  The fact that Yen has not waged war for centuries does not mean they lack the capacity to fight. But I'd say a militaristic state might struggle to understand what it is that's led to Yen's prosperity.
 </t>
   </si>
   <si>
@@ -2400,15 +2400,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Weeding out such people is one of my most important duties. And it’s a function of the State Council of Ursus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Once the State Council responds, we’ll implement measures to put a stop to the Chernobog core.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Weeding out such people is one of my most important duties. And it's a function of the State Council of Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Once the State Council responds, we'll implement measures to put a stop to the Chernobog core.
 </t>
   </si>
   <si>
@@ -2464,7 +2464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Dr. Kal'tsit, Amiya, Ch’en... you should hear this too.
+    <t xml:space="preserve">[name="Fumizuki"]  Dr. Kal'tsit, Amiya, Ch'en... you should hear this too.
 </t>
   </si>
   <si>
@@ -2476,11 +2476,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I don’t think so.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  If you reject their help again, we’ll truly be isolated.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I don't think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  If you reject their help again, we'll truly be isolated.
 </t>
   </si>
   <si>
@@ -2488,7 +2488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  What...? That’s my Messenger.
+    <t xml:space="preserve">[name="Wei Yenwu"]  What...? That's my Messenger.
 </t>
   </si>
   <si>
@@ -2500,7 +2500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  'I can’t even speculate on who the mastermind might be.'
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I can't even speculate on who the mastermind might be.'
 </t>
   </si>
   <si>
@@ -2516,7 +2516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  That’s the end.
+    <t xml:space="preserve">[name="Fumizuki"]  That's the end.
 </t>
   </si>
   <si>
@@ -2524,11 +2524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  The rest is the Messenger’s soliloquy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  He’s my Messenger. Let me hear it.
+    <t xml:space="preserve">[name="Fumizuki"]  The rest is the Messenger's soliloquy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  He's my Messenger. Let me hear it.
 </t>
   </si>
   <si>
@@ -2548,7 +2548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Deep Male Voice"]  'I reached the Ural Rift and commandeered a messaging station. What happens now, even I don’t know.'
+    <t xml:space="preserve">[name="Deep Male Voice"]  'I reached the Ural Rift and commandeered a messaging station. What happens now, even I don't know.'
 </t>
   </si>
   <si>
@@ -2560,7 +2560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Unclear if he’s alive or dead.
+    <t xml:space="preserve">[name="Fumizuki"]  Unclear if he's alive or dead.
 </t>
   </si>
   <si>
@@ -2576,15 +2576,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The Army hasn’t had a chance to engage in such operations since the Great Rebellion, but the Infected did.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The ancient nobility, closely watched as they were, couldn’t have planned the Chernobog incident, but the Infected could.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Indeed, most of Reunion’s Infected had no training, they didn’t stand a chance against the Ursus Guard and the Chernobog riot police—
+    <t xml:space="preserve">[name="Kal'tsit"]  The Army hasn't had a chance to engage in such operations since the Great Rebellion, but the Infected did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The ancient nobility, closely watched as they were, couldn't have planned the Chernobog incident, but the Infected could.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Indeed, most of Reunion's Infected had no training, they didn't stand a chance against the Ursus Guard and the Chernobog riot police—
 </t>
   </si>
   <si>
@@ -2596,11 +2596,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Lungmen and Rhodes Island anticipated Reunion’s actions, and the L.G.D. made a plan to annihilate them, but Chernobog...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even to this day, Chernobog, and the Ursus Court... haven’t said a word.
+    <t xml:space="preserve">[name="Kal'tsit"]  Lungmen and Rhodes Island anticipated Reunion's actions, and the L.G.D. made a plan to annihilate them, but Chernobog...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even to this day, Chernobog, and the Ursus Court... haven't said a word.
 </t>
   </si>
   <si>
@@ -2616,7 +2616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  They didn’t have to do anything. They just... got out of the way.
+    <t xml:space="preserve">[name="Fumizuki"]  They didn't have to do anything. They just... got out of the way.
 </t>
   </si>
   <si>
@@ -2628,7 +2628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Which left the Infected heading for Lungmen! No matter who’s running Reunion, this... all the elements were perfectly aligned...!
+    <t xml:space="preserve">[name="Fumizuki"]  Which left the Infected heading for Lungmen! No matter who's running Reunion, this... all the elements were perfectly aligned...!
 </t>
   </si>
   <si>
@@ -2636,7 +2636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Give the order. The censors must stand down, use force if necessary. We will prepare for war. We must be absolutely certain we can disable that core before it’s too late.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Give the order. The censors must stand down, use force if necessary. We will prepare for war. We must be absolutely certain we can disable that core before it's too late.
 </t>
   </si>
   <si>
@@ -2648,11 +2648,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  You’re going to start the war yourself?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, you’ve seen all Lungmen has been through, you must know. My brother wouldn’t stand for me starting a war with Ursus.
+    <t xml:space="preserve">[name="Fumizuki"]  You're going to start the war yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Fumizuki, you've seen all Lungmen has been through, you must know. My brother wouldn't stand for me starting a war with Ursus.
 </t>
   </si>
   <si>
@@ -2672,7 +2672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Some countries don’t even care about the truth. All they want is an excuse.
+    <t xml:space="preserve">[name="Kal'tsit"]  Some countries don't even care about the truth. All they want is an excuse.
 </t>
   </si>
   <si>
@@ -2684,27 +2684,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  But I’m afraid Witte and I are the last hope for peace between our two countries.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Whether our enemy is the Empire’s Third Army or the Emperor of Ursus, this war is going to happen eventually, even if we are certain to win it. Peace is no longer possible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  If Witte is too meek to use official channels to put a stop to this, it means he’ll face too much resistance and criticism for it, even if it works. He’s a politician. He has to look out for himself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Having pushed him this far, the Empire’s bureaucracy may be in some state of semi-paralysis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  A couple of divisions can hold Ursus hostage, but not Lungmen. This is not Ursus, you’re entitled to an emergency response to another moving city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Wouldn’t it then be too late to separate the city?!
+    <t xml:space="preserve">[name="Wei Yenwu"]  But I'm afraid Witte and I are the last hope for peace between our two countries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Whether our enemy is the Empire's Third Army or the Emperor of Ursus, this war is going to happen eventually, even if we are certain to win it. Peace is no longer possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If Witte is too meek to use official channels to put a stop to this, it means he'll face too much resistance and criticism for it, even if it works. He's a politician. He has to look out for himself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Having pushed him this far, the Empire's bureaucracy may be in some state of semi-paralysis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  A couple of divisions can hold Ursus hostage, but not Lungmen. This is not Ursus, you're entitled to an emergency response to another moving city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Wouldn't it then be too late to separate the city?!
 </t>
   </si>
   <si>
@@ -2728,7 +2728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  As you say, Doctor. It’s up to Lungmen now. Only we can stop the Chernobog core.
+    <t xml:space="preserve">[name="Wei Yenwu"]  As you say, Doctor. It's up to Lungmen now. Only we can stop the Chernobog core.
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’ll go.
+    <t xml:space="preserve">I'll go.
 </t>
   </si>
   <si>
@@ -2760,43 +2760,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Huh... Miss Ch’en?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Ch’en?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’ll take care of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You’re a Lungmenite.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I can leave Lungmen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Superintendent Ch’en, don’t play the hero. This isn’t your responsibility.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  If Lungmen needs a traitor, let it be me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’m sick of you, Wei Yenwu.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You and your precious city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I stopped being a Lungmenite even before you dug your claws into the slums.
+    <t xml:space="preserve">[name="Amiya"]  Huh... Miss Ch'en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Fumizuki"]  Ch'en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I'll take care of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You're a Lungmenite.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I can leave Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Superintendent Ch'en, don't play the hero. This isn't your responsibility.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  If Lungmen needs a traitor, let it be me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I'm sick of you, Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You and your precious city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I stopped being a Lungmenite even before you dug your claws into the slums.
 </t>
   </si>
   <si>
@@ -2804,7 +2804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  What did they do? Why did you have to do that to them?
+    <t xml:space="preserve">[name="Ch'en"]  What did they do? Why did you have to do that to them?
 </t>
   </si>
   <si>
@@ -2824,11 +2824,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Have any of them, aside from your informants or Lin Kojui’s ears, reported the Infected infiltrating their homes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Things happened so fast! That doesn’t mean anything!
+    <t xml:space="preserve">[name="Wei Yenwu"]  Have any of them, aside from your informants or Lin Kojui's ears, reported the Infected infiltrating their homes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Things happened so fast! That doesn't mean anything!
 </t>
   </si>
   <si>
@@ -2840,7 +2840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  No.
+    <t xml:space="preserve">[name="Ch'en"]  No.
 </t>
   </si>
   <si>
@@ -2848,11 +2848,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  They don’t trust you. They would rather put their faith in foreign provocateurs than the Rat King or the Superintendent of the L.G.D.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Maybe Reunion was threatening them. Reunion’s Infected are known to be violent and dangerous.
+    <t xml:space="preserve">[name="Wei Yenwu"]  They don't trust you. They would rather put their faith in foreign provocateurs than the Rat King or the Superintendent of the L.G.D.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Maybe Reunion was threatening them. Reunion's Infected are known to be violent and dangerous.
 </t>
   </si>
   <si>
@@ -2860,31 +2860,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I don’t blame them for supporting each other.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  In fact, if the Infected didn’t support each other, if they hated each other instead, the slums would have long since destroyed themselves.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  But they could have opposed Reunion. They could have come together with the Rat King’s people to fight the infiltrators, they could have asked for your help——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  They don’t trust——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Exactly. They don’t trust you. After all you’ve done for them. They still don’t trust you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  We should have sent the L.G.D. into the slums long ago!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  It was the locals who didn’t want the L.G.D. in the slums. They were the ones working against my L.G.D. time and time again.
+    <t xml:space="preserve">[name="Wei Yenwu"]  I don't blame them for supporting each other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  In fact, if the Infected didn't support each other, if they hated each other instead, the slums would have long since destroyed themselves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But they could have opposed Reunion. They could have come together with the Rat King's people to fight the infiltrators, they could have asked for your help——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  They don't trust——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Exactly. They don't trust you. After all you've done for them. They still don't trust you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  We should have sent the L.G.D. into the slums long ago!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  It was the locals who didn't want the L.G.D. in the slums. They were the ones working against my L.G.D. time and time again.
 </t>
   </si>
   <si>
@@ -2896,7 +2896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Answer me, Miss Ch’en.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Answer me, Miss Ch'en.
 </t>
   </si>
   <si>
@@ -2904,7 +2904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  It’s not their fault.
+    <t xml:space="preserve">[name="Ch'en"]  It's not their fault.
 </t>
   </si>
   <si>
@@ -2912,7 +2912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  How many times have I told you? You have the right to your own thoughts and opinions... provided you don’t let them affect your work.
+    <t xml:space="preserve">[name="Wei Yenwu"]  How many times have I told you? You have the right to your own thoughts and opinions... provided you don't let them affect your work.
 </t>
   </si>
   <si>
@@ -2920,7 +2920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  The slums you’ve done so much for have become a vulnerability that could lead to Lungmen’s destruction.
+    <t xml:space="preserve">[name="Wei Yenwu"]  The slums you've done so much for have become a vulnerability that could lead to Lungmen's destruction.
 </t>
   </si>
   <si>
@@ -2940,7 +2940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  No...
+    <t xml:space="preserve">[name="Ch'en"]  No...
 </t>
   </si>
   <si>
@@ -2948,11 +2948,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  So much destruction over a few neighborhoods... just because we didn’t act in time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  When you say 'act,' do you mean——
+    <t xml:space="preserve">[name="Wei Yenwu"]  So much destruction over a few neighborhoods... just because we didn't act in time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  When you say 'act,' do you mean——
 </t>
   </si>
   <si>
@@ -2968,7 +2968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  So you’ll dispose of them?
+    <t xml:space="preserve">[name="Ch'en"]  So you'll dispose of them?
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Ch’en. We are all tainted with our innumerable mistakes.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ch'en. We are all tainted with our innumerable mistakes.
 </t>
   </si>
   <si>
@@ -2984,19 +2984,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  There is always someone who can do what I can’t. But for now, I still have things to do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Everyone makes mistakes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I know what you’re saying.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  The Infected are a mistake, as long as they exist in the city?
+    <t xml:space="preserve">[name="Wei Yenwu"]  There is always someone who can do what I can't. But for now, I still have things to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Everyone makes mistakes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I know what you're saying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  The Infected are a mistake, as long as they exist in the city?
 </t>
   </si>
   <si>
@@ -3008,23 +3008,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Alright then. *Inhales*...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu, what I must do, what the L.G.D. must do, is name who is at fault, and correct the mistake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  It seems that, according to your definition, I am at fault.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  We could also say I am the mistake.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Because I am Infected.
+    <t xml:space="preserve">[name="Ch'en"]  Alright then. *Inhales*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Wei Yenwu, what I must do, what the L.G.D. must do, is name who is at fault, and correct the mistake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  It seems that, according to your definition, I am at fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  We could also say I am the mistake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Because I am Infected.
 </t>
   </si>
   <si>
@@ -3036,15 +3036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Madam Ch’en...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  There is no need to hide it anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  For three years, you've been hiding my infection from the world. Now that the Infected have no place in this city, neither do I.
+    <t xml:space="preserve">[name="Amiya"]  Madam Ch'en...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  There is no need to hide it anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  For three years, you've been hiding my infection from the world. Now that the Infected have no place in this city, neither do I.
 </t>
   </si>
   <si>
@@ -3052,15 +3052,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  She and I are both Infected. I don’t belong here. I know what I must do, and I won’t be making any more mistakes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’m the only one who can stop her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Don’t feel bad. I understand. We’re sworn brothers, aren’t we? Brothers... remember where we came from.'
+    <t xml:space="preserve">[name="Ch'en"]  She and I are both Infected. I don't belong here. I know what I must do, and I won't be making any more mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I'm the only one who can stop her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Don't feel bad. I understand. We're sworn brothers, aren't we? Brothers... remember where we came from.'
 </t>
   </si>
   <si>
@@ -3068,7 +3068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I am Infected, and a traitor to Lungmen. I am the only one who can do this.
+    <t xml:space="preserve">[name="Ch'en"]  I am Infected, and a traitor to Lungmen. I am the only one who can do this.
 </t>
   </si>
   <si>
@@ -3080,7 +3080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  We’ve come this far. All we can do is keep going.
+    <t xml:space="preserve">[name="Ch'en"]  We've come this far. All we can do is keep going.
 </t>
   </si>
   <si>
@@ -3096,27 +3096,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  If you leave this office today, Ch’en Hui-chieh... you will be an enemy of Lungmen. You will never again be allowed to set foot in this city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  And all that we’ve worked for together for the past ten years... will come to nothing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Everything I worked for came to nothing as soon as you did what you did.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Lungmen is about to go up in flames. A battle is upon us. You have your ways, I have mine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  The only difference is, I’m not like you. I don’t think anyone is a 'mistake.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I won’t let this city fall. But I won’t go in without a plan either.
+    <t xml:space="preserve">[name="Wei Yenwu"]  If you leave this office today, Ch'en Hui-chieh... you will be an enemy of Lungmen. You will never again be allowed to set foot in this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And all that we've worked for together for the past ten years... will come to nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Everything I worked for came to nothing as soon as you did what you did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Lungmen is about to go up in flames. A battle is upon us. You have your ways, I have mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  The only difference is, I'm not like you. I don't think anyone is a 'mistake.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I won't let this city fall. But I won't go in without a plan either.
 </t>
   </si>
   <si>
@@ -3124,19 +3124,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Um.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t make a mockery of yourself, Inspector Ch'en.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ......?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Laugh at that, and you’re laughing at yourself.
+    <t xml:space="preserve">[name="Ch'en"]  Um.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don't make a mockery of yourself, Inspector Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ......?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Laugh at that, and you're laughing at yourself.
 </t>
   </si>
   <si>
@@ -3144,15 +3144,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  So, has it changed? Can it be changed? Does everything I’ve worked for actually mean anything?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Even if it can’t now, it must be someday.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You’re going to make sure it can be changed.
+    <t xml:space="preserve">[name="Ch'en"]  So, has it changed? Can it be changed? Does everything I've worked for actually mean anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Even if it can't now, it must be someday.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You're going to make sure it can be changed.
 </t>
   </si>
   <si>
@@ -3160,7 +3160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Receptionist"]  You can’t go in there... security?! Where are the guards?! There’s an intruder!
+    <t xml:space="preserve">[name="Receptionist"]  You can't go in there... security?! Where are the guards?! There's an intruder!
 </t>
   </si>
   <si>
@@ -3176,15 +3176,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You shouldn’t have come.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Heh... haha, ahahahaha...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu, that’s all it took to show your true colors? Your private army just shows up here in your office?
+    <t xml:space="preserve">[name="Wei Yenwu"]  You shouldn't have come.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Heh... haha, ahahahaha...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Wei Yenwu, that's all it took to show your true colors? Your private army just shows up here in your office?
 </t>
   </si>
   <si>
@@ -3192,11 +3192,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Sounds like you have a strong sense of duty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  But I don’t believe a word you say. If you have something for him, go ahead.
+    <t xml:space="preserve">[name="Ch'en"]  Sounds like you have a strong sense of duty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  But I don't believe a word you say. If you have something for him, go ahead.
 </t>
   </si>
   <si>
@@ -3212,31 +3212,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  How about it, Wei Yenwu? Will you send them, or send me? Is that a tough choice?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Why is it you’re so decisive when it comes to killing people and so indecisive when it’s time to save them?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  That’s how it is now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  That’s how it was then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I didn’t expect a chance at a proper goodbye.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’ve thought about it many times, Wei Yenwu, but I never expected to give anyone a proper goodbye.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Miss Fumizuki, I’m sorry my mom treated you like that. Thank you for looking after me all these years. I’ve always thought of you as family.
+    <t xml:space="preserve">[name="Ch'en"]  How about it, Wei Yenwu? Will you send them, or send me? Is that a tough choice?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Why is it you're so decisive when it comes to killing people and so indecisive when it's time to save them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  That's how it is now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  That's how it was then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I didn't expect a chance at a proper goodbye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I've thought about it many times, Wei Yenwu, but I never expected to give anyone a proper goodbye.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Miss Fumizuki, I'm sorry my mom treated you like that. Thank you for looking after me all these years. I've always thought of you as family.
 </t>
   </si>
   <si>
@@ -3248,7 +3248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Not anymore. This badge? You can have it back.
+    <t xml:space="preserve">[name="Ch'en"]  Not anymore. This badge? You can have it back.
 </t>
   </si>
   <si>
@@ -3256,7 +3256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You want to fight here first? To decide who’s the real traitor?
+    <t xml:space="preserve">[name="Ch'en"]  You want to fight here first? To decide who's the real traitor?
 </t>
   </si>
   <si>
@@ -3264,7 +3264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I’m Infected. I’m your greatest enemy.
+    <t xml:space="preserve">[name="Ch'en"]  I'm Infected. I'm your greatest enemy.
 </t>
   </si>
   <si>
@@ -3272,7 +3272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Who have you ever shown mercy?!
+    <t xml:space="preserve">[name="Ch'en"]  Who have you ever shown mercy?!
 </t>
   </si>
   <si>
@@ -3280,7 +3280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Don’t sound all high-and-mighty about things you can’t do!
+    <t xml:space="preserve">[name="Ch'en"]  Don't sound all high-and-mighty about things you can't do!
 </t>
   </si>
   <si>
@@ -3288,7 +3288,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Chi Xiao - Rouse Qi!
+    <t xml:space="preserve">[name="Ch'en"]  Chi Xiao - Rouse Qi!
 </t>
   </si>
   <si>
@@ -3296,7 +3296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">'It just might. Looks like I’ll have to be more careful around you, haha...'
+    <t xml:space="preserve">'It just might. Looks like I'll have to be more careful around you, haha...'
 </t>
   </si>
   <si>
@@ -3304,15 +3304,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Doctor, get behind me! I’ll block the Arts!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  No... It’ll just get torn apart by that kind of power.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  She’s not aiming for us. Get out of her range right now.
+    <t xml:space="preserve">[name="Amiya"]  Doctor, get behind me! I'll block the Arts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No... It'll just get torn apart by that kind of power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  She's not aiming for us. Get out of her range right now.
 </t>
   </si>
   <si>
@@ -3324,7 +3324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  ——Release!
+    <t xml:space="preserve">[name="Ch'en"]  ——Release!
 </t>
   </si>
   <si>
@@ -3336,7 +3336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  You can block it with just your wrist?
+    <t xml:space="preserve">[name="Ch'en"]  You can block it with just your wrist?
 </t>
   </si>
   <si>
@@ -3344,7 +3344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...Tempered Originium. Chi Xiao, huh? To think that they’re still making weapons like that...
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Tempered Originium. Chi Xiao, huh? To think that they're still making weapons like that...
 </t>
   </si>
   <si>
@@ -3352,11 +3352,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...At first, Madam Ch’en didn’t even let me look at that sword. Was she envisioning a situation where I would be an enemy...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Out of my way!
+    <t xml:space="preserve">[name="Amiya"]  ...At first, Madam Ch'en didn't even let me look at that sword. Was she envisioning a situation where I would be an enemy...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Out of my way!
 </t>
   </si>
   <si>
@@ -3364,11 +3364,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Through my death, I assure you that Inspector Ch’en will remain in Lungmen. Though I cannot guarantee that she’ll have her limbs intact, I can ensure that she lives.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]   —Impermissible. You, fall back. Don’t engage her directly!
+    <t xml:space="preserve">[name="???"]  Through my death, I assure you that Inspector Ch'en will remain in Lungmen. Though I cannot guarantee that she'll have her limbs intact, I can ensure that she lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]   —Impermissible. You, fall back. Don't engage her directly!
 </t>
   </si>
   <si>
@@ -3376,7 +3376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Planning to call reinforcements? Chi Xiao—!
+    <t xml:space="preserve">[name="Ch'en"]  Planning to call reinforcements? Chi Xiao—!
 </t>
   </si>
   <si>
@@ -3384,7 +3384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  Gah..!
+    <t xml:space="preserve">[name="Ch'en"]  Gah..!
 </t>
   </si>
   <si>
@@ -3392,7 +3392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t forget, who taught you your swordsmanship and your Arts?
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don't forget, who taught you your swordsmanship and your Arts?
 </t>
   </si>
   <si>
@@ -3400,47 +3400,47 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Don’t force my hand, Ch'en Hui-chieh.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Do it then, Master Wei. Chi Xiao answers to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  The day you gave me Chi Xiao, did you think I would slay you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  I won’t use it to spill your blood, Wei Yenwu.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You think you’re protecting me, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  My mother died to depression. Talulah was taken away. I contracted Oripathy in the course of my work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  You think everything you’ve done was for the sake of protecting me, don’t you? Is that because of your guilty conscience, or because of your confidence in your own strategies?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  I don’t want to witness another tragedy ever again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Liar!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu, there are those who this sword seeks to kill... and those who it seeks to protect.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  If she truly wishes to destroy Lungmen...!
+    <t xml:space="preserve">[name="Wei Yenwu"]  Don't force my hand, Ch'en Hui-chieh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Do it then, Master Wei. Chi Xiao answers to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  The day you gave me Chi Xiao, did you think I would slay you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  I won't use it to spill your blood, Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You think you're protecting me, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  My mother died to depression. Talulah was taken away. I contracted Oripathy in the course of my work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  You think everything you've done was for the sake of protecting me, don't you? Is that because of your guilty conscience, or because of your confidence in your own strategies?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I don't want to witness another tragedy ever again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Liar!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Wei Yenwu, there are those who this sword seeks to kill... and those who it seeks to protect.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  If she truly wishes to destroy Lungmen...!
 </t>
   </si>
   <si>
@@ -3448,11 +3448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"]  I never thought I would beat you and your Black Cloaks here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  ...But there is more than one way out of here, Wei Yenwu.
+    <t xml:space="preserve">[name="Ch'en"]  I never thought I would beat you and your Black Cloaks here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  ...But there is more than one way out of here, Wei Yenwu.
 </t>
   </si>
   <si>
@@ -3460,11 +3460,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  Ch'en Hui-chieh! Stop this foolishness! We’re hundreds of meters above the ground.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  This wouldn’t be the first time I’ve used the window route. Or the second.
+    <t xml:space="preserve">[name="Wei Yenwu"]  Ch'en Hui-chieh! Stop this foolishness! We're hundreds of meters above the ground.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  This wouldn't be the first time I've used the window route. Or the second.
 </t>
   </si>
   <si>
@@ -3472,31 +3472,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Fumizuki"]  Ahhh... Ch’en...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  You mustn’t repeat the same mistakes! You can’t go down the same path we did!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"]  If there’s anyone who should die for this city, that person should be—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  *Sigh.*
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  Uncle...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"]  No... Wei Yenwu. Starting today, we are strangers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sound of glass smashing echoed across the room, and Ch’en falls face-up from the tall building.
+    <t xml:space="preserve">[name="Fumizuki"]  Ahhh... Ch'en...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You mustn't repeat the same mistakes! You can't go down the same path we did!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  If there's anyone who should die for this city, that person should be—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  *Sigh.*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  Uncle...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"]  No... Wei Yenwu. Starting today, we are strangers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sound of glass smashing echoed across the room, and Ch'en falls face-up from the tall building.
 </t>
   </si>
   <si>
@@ -3504,7 +3504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But Ch’en had already made up her mind.
+    <t xml:space="preserve">But Ch'en had already made up her mind.
 </t>
   </si>
   <si>
